--- a/Raiz/Material_de_catedra/2021_4K3_Cronograma_Tentativo_Clases_y_Links_Clases_Grabadas_v1.xlsx
+++ b/Raiz/Material_de_catedra/2021_4K3_Cronograma_Tentativo_Clases_y_Links_Clases_Grabadas_v1.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miNx0qsYN0jt/dY5ea/F/vYHz57tw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgMENP+Y6LNUsrc/fu4ZgUcnerXdg=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="86">
   <si>
     <t>Día</t>
   </si>
@@ -152,7 +152,13 @@
     <t>Dinámica de Scrum</t>
   </si>
   <si>
+    <t>Dinamicas de scrum</t>
+  </si>
+  <si>
     <t>Scrum y métricas ágiles</t>
+  </si>
+  <si>
+    <t>Clase Grabada Scrum y métricas ágiles</t>
   </si>
   <si>
     <r>
@@ -176,6 +182,9 @@
     </r>
   </si>
   <si>
+    <t>Planificación de Release</t>
+  </si>
+  <si>
     <t>Clase de Consulta</t>
   </si>
   <si>
@@ -183,25 +192,6 @@
   </si>
   <si>
     <t>Primer Parcial Teórico y Primer Parcial Práctico</t>
-  </si>
-  <si>
-    <t>Práctico de Scrum - Planificación de release y sprint (Parte II)</t>
-  </si>
-  <si>
-    <t>Overview de Testing - Testing ágil en contexto (clase invertida)
-Framework para escalar scrum</t>
-  </si>
-  <si>
-    <t>Ver video de overview de testing.
-Póster científico Nexus y Less. Se expone. 
-La asignación del tema la realiza el docente</t>
-  </si>
-  <si>
-    <t>Video testing ágil: https://www.youtube.com/watch?v=hKoJBlhxuN8&amp;ab_channel=Ingenier%C3%ADadeSoftwareUTNFRC
-La información debe consultarse de sitios oficiales (Guía de Less y de Nexus)</t>
-  </si>
-  <si>
-    <t>Trabajo conceptual 2</t>
   </si>
   <si>
     <t>Testing - Práctico de Caja Negra</t>
@@ -251,17 +241,23 @@
     </r>
   </si>
   <si>
-    <t>Filosofía Lean y Kanban</t>
-  </si>
-  <si>
-    <t>Aseguramiento de la calidad y CMMI van al parcial. Hay videos disponibles de ambos temas</t>
-  </si>
-  <si>
-    <t>Aseguramiento de la calidad: https://youtu.be/GC0HejFmA5w
-CMMI y Auditorías lo ven por su cuenta: https://youtu.be/SUOfdl3Xew0</t>
-  </si>
-  <si>
-    <t>Testing - Práctico de Caja Blanca</t>
+    <t>Teorico de Testing</t>
+  </si>
+  <si>
+    <t>Overview de Testing - Testing ágil en contexto (clase invertida)
+Framework para escalar scrum</t>
+  </si>
+  <si>
+    <t>Ver video de overview de testing.
+Póster científico Nexus y Less. Se expone. 
+La asignación del tema la realiza el docente</t>
+  </si>
+  <si>
+    <t>Video testing ágil: https://www.youtube.com/watch?v=hKoJBlhxuN8&amp;ab_channel=Ingenier%C3%ADadeSoftwareUTNFRC
+La información debe consultarse de sitios oficiales (Guía de Less y de Nexus)</t>
+  </si>
+  <si>
+    <t>Trabajo conceptual 2</t>
   </si>
   <si>
     <t>Ver previamente video de Testing Caja Blanca</t>
@@ -273,16 +269,50 @@
 Parte 3: https://youtu.be/wLFSbA537YI</t>
   </si>
   <si>
+    <t>Testing de Caja Negra</t>
+  </si>
+  <si>
+    <t>Filosofía Lean y Kanban</t>
+  </si>
+  <si>
+    <t>Aseguramiento de la calidad y CMMI van al parcial. Hay videos disponibles de ambos temas</t>
+  </si>
+  <si>
+    <t>Aseguramiento de la calidad: https://youtu.be/GC0HejFmA5w
+CMMI y Auditorías lo ven por su cuenta: https://youtu.be/SUOfdl3Xew0</t>
+  </si>
+  <si>
+    <t>Clase Grabada Lean y Kanban 1: https://youtu.be/THtcs0_kQgo
+Clase Grabada Lean y Kanban 2: 
+https://youtu.be/F2_u0D5H5Ik</t>
+  </si>
+  <si>
+    <t>Testing - Práctico de Caja Blanca</t>
+  </si>
+  <si>
+    <t>Ver previamente video de Testing Caja Blanca
+Traer práctico nro 10 resuelto a clases luego de ver los videos</t>
+  </si>
+  <si>
     <t>Feriado con Fines turísticos</t>
   </si>
   <si>
     <t>Ejecución de caja negra</t>
   </si>
   <si>
+    <t>Leer práctico de ejecución de caja negra y coordinar con los grupos para contar con la información para realizar las pruebas.</t>
+  </si>
+  <si>
     <t>Métricas tradicionales, Lean y Agile</t>
   </si>
   <si>
+    <t>Clase Grabada Métricas</t>
+  </si>
+  <si>
     <t>Práctico de Testing (Caja Blanca y Caja Negra)</t>
+  </si>
+  <si>
+    <t>Practico de Testing</t>
   </si>
   <si>
     <t>Segundo Parcial Teórico y Segundo Parcial Práctico</t>
@@ -317,7 +347,7 @@
     </r>
   </si>
   <si>
-    <t>Juicio robot asesino</t>
+    <t>Teórico Práctico de Retrospectivas</t>
   </si>
   <si>
     <t>Pecha Kucha</t>
@@ -333,9 +363,6 @@
   </si>
   <si>
     <t>Recuperatorios</t>
-  </si>
-  <si>
-    <t>Retrospectiva?</t>
   </si>
   <si>
     <t>Recuperatorio trabajo conceptual</t>
@@ -345,7 +372,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -395,11 +422,20 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+    </font>
     <font>
       <u/>
       <sz val="11.0"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF1155CC"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -499,7 +535,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -543,14 +579,14 @@
     <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="1" fillId="4" fontId="2" numFmtId="16" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
@@ -560,44 +596,47 @@
     </xf>
     <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="1" fillId="5" fontId="2" numFmtId="16" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="1" fillId="6" fontId="2" numFmtId="16" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="6" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="6" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="16" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -1089,7 +1128,9 @@
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="17"/>
+      <c r="G12" s="10" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
@@ -1103,9 +1144,12 @@
         <v>44449</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E13" s="5"/>
+      <c r="F13" s="17" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
@@ -1119,11 +1163,13 @@
         <v>44454</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="18"/>
+      <c r="G14" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
@@ -1137,15 +1183,15 @@
         <v>44456</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="19"/>
+        <v>47</v>
+      </c>
+      <c r="E15" s="18"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="17"/>
+      <c r="G15" s="19"/>
     </row>
     <row r="16">
       <c r="A16" s="20" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>32</v>
@@ -1154,7 +1200,7 @@
         <v>44457.0</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
@@ -1168,12 +1214,18 @@
         <f t="shared" ref="C17:C18" si="2">C14+7</f>
         <v>44461</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="27"/>
+      <c r="D17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
@@ -1187,16 +1239,16 @@
         <v>44463</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19">
@@ -1210,16 +1262,18 @@
         <f t="shared" ref="C19:C26" si="3">C17+7</f>
         <v>44468</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>52</v>
+      <c r="D19" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19" s="18"/>
+        <v>58</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
@@ -1233,15 +1287,17 @@
         <v>44470</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20" s="18"/>
+        <v>63</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
@@ -1255,35 +1311,35 @@
         <v>44475</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="18"/>
+      <c r="G21" s="30"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="31">
+      <c r="C22" s="32">
         <f t="shared" si="3"/>
         <v>44477</v>
       </c>
-      <c r="D22" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
+      <c r="D22" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+    </row>
+    <row r="23" ht="45.75" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>7</v>
       </c>
@@ -1295,11 +1351,15 @@
         <v>44482</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="17"/>
+        <v>68</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="35"/>
+      <c r="G23" s="10" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="3" t="s">
@@ -1313,11 +1373,13 @@
         <v>44484</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E24" s="9"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="17"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="10" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="3" t="s">
@@ -1331,11 +1393,13 @@
         <v>44489</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="18"/>
+      <c r="G25" s="7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="3" t="s">
@@ -1349,15 +1413,15 @@
         <v>44491</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="17"/>
+        <v>47</v>
+      </c>
+      <c r="E26" s="18"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="19"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="20" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B27" s="20" t="s">
         <v>32</v>
@@ -1366,7 +1430,7 @@
         <v>44492.0</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
@@ -1376,7 +1440,7 @@
       <c r="A28" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="38" t="s">
         <v>15</v>
       </c>
       <c r="C28" s="13">
@@ -1384,10 +1448,10 @@
         <v>44496</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F28" s="3"/>
-      <c r="G28" s="17"/>
+      <c r="G28" s="19"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
@@ -1401,15 +1465,15 @@
         <v>44498</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F29" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="G29" s="17"/>
+        <v>77</v>
+      </c>
+      <c r="F29" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" s="19"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="3" t="s">
@@ -1419,15 +1483,15 @@
         <v>15</v>
       </c>
       <c r="C30" s="4">
-        <f t="shared" ref="C30:C33" si="5">C28+7</f>
+        <f t="shared" ref="C30:C35" si="5">C28+7</f>
         <v>44503</v>
       </c>
-      <c r="D30" s="38" t="s">
-        <v>70</v>
+      <c r="D30" s="40" t="s">
+        <v>79</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="18"/>
+      <c r="G30" s="30"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="3" t="s">
@@ -1440,13 +1504,13 @@
         <f t="shared" si="5"/>
         <v>44505</v>
       </c>
-      <c r="D31" s="39" t="s">
-        <v>71</v>
+      <c r="D31" s="41" t="s">
+        <v>80</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="3"/>
       <c r="G31" s="16" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -1461,11 +1525,11 @@
         <v>44510</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E32" s="9"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="18"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="30"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="3" t="s">
@@ -1478,69 +1542,53 @@
         <f t="shared" si="5"/>
         <v>44512</v>
       </c>
-      <c r="D33" s="41" t="s">
-        <v>74</v>
+      <c r="D33" s="43" t="s">
+        <v>83</v>
       </c>
       <c r="E33" s="3"/>
-      <c r="G33" s="17"/>
+      <c r="G33" s="19"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="20" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C34" s="21">
-        <v>44513.0</v>
+        <f t="shared" si="5"/>
+        <v>44517</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="44"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="13">
-        <f t="shared" ref="C35:C36" si="6">C32+7</f>
-        <v>44517</v>
-      </c>
-      <c r="D35" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="E35" s="33"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="43"/>
+      <c r="A35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="4">
+        <f t="shared" si="5"/>
+        <v>44519</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="41"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="19"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="4">
-        <f t="shared" si="6"/>
-        <v>44519</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E36" s="39"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="17"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="C37" s="44"/>
-      <c r="E37" s="45"/>
-    </row>
+      <c r="C36" s="45"/>
+      <c r="E36" s="46"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1"/>
     <row r="38" ht="15.75" customHeight="1"/>
     <row r="39" ht="15.75" customHeight="1"/>
     <row r="40" ht="15.75" customHeight="1"/>
@@ -2506,7 +2554,6 @@
     <row r="1000" ht="15.75" customHeight="1"/>
     <row r="1001" ht="15.75" customHeight="1"/>
     <row r="1002" ht="15.75" customHeight="1"/>
-    <row r="1003" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="F2"/>
@@ -2519,12 +2566,20 @@
     <hyperlink r:id="rId8" ref="G8"/>
     <hyperlink r:id="rId9" ref="G9"/>
     <hyperlink r:id="rId10" ref="G10"/>
-    <hyperlink r:id="rId11" ref="F19"/>
-    <hyperlink r:id="rId12" ref="F29"/>
+    <hyperlink r:id="rId11" ref="G12"/>
+    <hyperlink r:id="rId12" ref="F13"/>
+    <hyperlink r:id="rId13" ref="G14"/>
+    <hyperlink r:id="rId14" ref="F17"/>
+    <hyperlink r:id="rId15" ref="G17"/>
+    <hyperlink r:id="rId16" ref="G19"/>
+    <hyperlink r:id="rId17" ref="G23"/>
+    <hyperlink r:id="rId18" ref="G24"/>
+    <hyperlink r:id="rId19" ref="G25"/>
+    <hyperlink r:id="rId20" ref="F29"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId13"/>
+  <drawing r:id="rId21"/>
 </worksheet>
 </file>